--- a/test_cases/TC-5/PE-54-FAIL.xlsx
+++ b/test_cases/TC-5/PE-54-FAIL.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\manue\Desktop\UADE\Año 2\Segundo Cutrimestre\Testing de Aplicaciones\TPO\test_cases\TC-5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{826C139F-D67B-4A9F-8522-A6E6B3DEA6AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04A65F88-C594-457D-8493-C9E9FC1C126F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -54,29 +54,29 @@
     <t>Severidad</t>
   </si>
   <si>
-    <t>Media - esto permitiria a otras personas acceder a cuentas que no sean suyas ya que podran probar multiples contraseñas</t>
-  </si>
-  <si>
     <t>Test Data</t>
   </si>
   <si>
     <t>User e-mail = pepe@gmail.com</t>
   </si>
   <si>
-    <t>User password = 1233</t>
-  </si>
-  <si>
-    <t>TC-5</t>
-  </si>
-  <si>
     <t>Ya tener un usuario registrado para iniciar sesion</t>
   </si>
   <si>
     <t>Test Case Titulo</t>
   </si>
   <si>
+    <t>Alta - esto permitiria a otras personas acceder a cuentas que no sean suyas ya que podran probar multiples contraseñas</t>
+  </si>
+  <si>
+    <t>TC-5-4</t>
+  </si>
+  <si>
     <t>PE-54
-Inicio de Sesion</t>
+Inicio de Sesion bloqueo</t>
+  </si>
+  <si>
+    <t>password incorrecta = aaaa</t>
   </si>
 </sst>
 </file>
@@ -257,24 +257,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -286,6 +268,24 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -570,14 +570,14 @@
   <dimension ref="B2:G9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3.42578125" customWidth="1"/>
     <col min="2" max="2" width="14.42578125" customWidth="1"/>
-    <col min="3" max="3" width="20.85546875" customWidth="1"/>
+    <col min="3" max="3" width="24.5703125" customWidth="1"/>
     <col min="4" max="4" width="4.140625" customWidth="1"/>
     <col min="5" max="5" width="20.85546875" customWidth="1"/>
     <col min="6" max="6" width="3.5703125" customWidth="1"/>
@@ -589,7 +589,7 @@
         <v>0</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D2" s="3"/>
       <c r="E2" s="1" t="s">
@@ -597,7 +597,7 @@
       </c>
       <c r="F2" s="3"/>
       <c r="G2" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -608,40 +608,40 @@
         <v>3</v>
       </c>
       <c r="D3" s="3"/>
-      <c r="E3" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="G3" s="9" t="s">
+      <c r="E3" s="13" t="s">
         <v>11</v>
       </c>
+      <c r="G3" s="13" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="4" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="16" t="s">
+    <row r="4" spans="2:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="17" t="s">
-        <v>16</v>
-      </c>
       <c r="D4" s="3"/>
-      <c r="E4" s="10"/>
-      <c r="G4" s="14"/>
+      <c r="E4" s="14"/>
+      <c r="G4" s="18"/>
     </row>
-    <row r="5" spans="2:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B5" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G5" s="15" t="s">
-        <v>12</v>
+      <c r="G5" s="9" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B6" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="18" t="s">
+      <c r="C6" s="12" t="s">
         <v>7</v>
       </c>
     </row>
@@ -649,11 +649,11 @@
       <c r="B9" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="D9" s="12"/>
-      <c r="E9" s="13"/>
+      <c r="C9" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" s="16"/>
+      <c r="E9" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/test_cases/TC-5/PE-54-FAIL.xlsx
+++ b/test_cases/TC-5/PE-54-FAIL.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\manue\Desktop\UADE\Año 2\Segundo Cutrimestre\Testing de Aplicaciones\TPO\test_cases\TC-5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04A65F88-C594-457D-8493-C9E9FC1C126F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43B15292-AF57-48AD-B992-D7F45C8AD394}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="36">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -51,9 +51,6 @@
     <t>Alta</t>
   </si>
   <si>
-    <t>Severidad</t>
-  </si>
-  <si>
     <t>Test Data</t>
   </si>
   <si>
@@ -64,9 +61,6 @@
   </si>
   <si>
     <t>Test Case Titulo</t>
-  </si>
-  <si>
-    <t>Alta - esto permitiria a otras personas acceder a cuentas que no sean suyas ya que podran probar multiples contraseñas</t>
   </si>
   <si>
     <t>TC-5-4</t>
@@ -77,13 +71,96 @@
   </si>
   <si>
     <t>password incorrecta = aaaa</t>
+  </si>
+  <si>
+    <t>Secundario</t>
+  </si>
+  <si>
+    <t>Paso</t>
+  </si>
+  <si>
+    <t>Resultado esperado</t>
+  </si>
+  <si>
+    <t>Resultado obtenido</t>
+  </si>
+  <si>
+    <t>Navegar hasta la seccion "Already register"</t>
+  </si>
+  <si>
+    <t>Poder visualizar el formulario para completar e-mail y contraseña</t>
+  </si>
+  <si>
+    <t>Visualizacion del formulario para completar e-mail y contraseña al navegar a la seccion sig in</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Repetir esatas acciones x3 </t>
+  </si>
+  <si>
+    <t>Completar el campo de e-mail sin ningun error</t>
+  </si>
+  <si>
+    <t>Visualizar que el e-mail esta bien escrito</t>
+  </si>
+  <si>
+    <t>No exite esta verificacion previa a clickear Enviar</t>
+  </si>
+  <si>
+    <t>Completar el campo de contraseña con la contraseña incorrecta</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>Clikear login</t>
+  </si>
+  <si>
+    <t>Visualisar mensaje de error</t>
+  </si>
+  <si>
+    <t>Visualizacion del mensaje de error y que no se haya bloqueado al usuario</t>
+  </si>
+  <si>
+    <t>Fin de la repeticion</t>
+  </si>
+  <si>
+    <t>Visualisar mensaje de error y que se haya bloqueado al usuario</t>
+  </si>
+  <si>
+    <t>No hay bloqueo de usuario de ningun tipo</t>
+  </si>
+  <si>
+    <t>Severidad
+100% reproduccion</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Alta</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - esto permitiria a otras personas acceder a cuentas que no sean suyas ya que podran probar multiples contraseñas</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -91,8 +168,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -111,8 +195,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="10">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -229,11 +325,40 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -254,9 +379,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -269,6 +391,9 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -285,6 +410,51 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -567,10 +737,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:G9"/>
+  <dimension ref="B2:G17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -589,7 +759,7 @@
         <v>0</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D2" s="3"/>
       <c r="E2" s="1" t="s">
@@ -597,7 +767,7 @@
       </c>
       <c r="F2" s="3"/>
       <c r="G2" s="7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -609,18 +779,18 @@
       </c>
       <c r="D3" s="3"/>
       <c r="E3" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" s="13" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="13" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="2:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" s="11" t="s">
-        <v>15</v>
+      <c r="C4" s="10" t="s">
+        <v>13</v>
       </c>
       <c r="D4" s="3"/>
       <c r="E4" s="14"/>
@@ -633,34 +803,165 @@
       <c r="C5" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G5" s="9" t="s">
-        <v>16</v>
+      <c r="G5" s="8" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B6" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="12" t="s">
+      <c r="C6" s="11" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="2:7" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="D9" s="16"/>
-      <c r="E9" s="17"/>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B8" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8" s="21"/>
+      <c r="F8" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="G8" s="22"/>
+    </row>
+    <row r="9" spans="2:7" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="23">
+        <v>1</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9" s="16"/>
+      <c r="F9" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="G9" s="17"/>
+    </row>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B10" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" s="25"/>
+      <c r="D10" s="25"/>
+      <c r="E10" s="25"/>
+      <c r="F10" s="25"/>
+      <c r="G10" s="26"/>
+    </row>
+    <row r="11" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="B11" s="23">
+        <v>2</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="E11" s="16"/>
+      <c r="F11" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="G11" s="17"/>
+    </row>
+    <row r="12" spans="2:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="B12" s="23">
+        <v>3</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="E12" s="17"/>
+      <c r="F12" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="G12" s="17"/>
+    </row>
+    <row r="13" spans="2:7" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="23">
+        <v>4</v>
+      </c>
+      <c r="C13" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="D13" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E13" s="17"/>
+      <c r="F13" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="G13" s="17"/>
+    </row>
+    <row r="14" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B14" s="30" t="s">
+        <v>31</v>
+      </c>
+      <c r="C14" s="31"/>
+      <c r="D14" s="31"/>
+      <c r="E14" s="31"/>
+      <c r="F14" s="31"/>
+      <c r="G14" s="32"/>
+    </row>
+    <row r="15" spans="2:7" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="23">
+        <v>5</v>
+      </c>
+      <c r="C15" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="D15" s="28" t="s">
+        <v>32</v>
+      </c>
+      <c r="E15" s="29"/>
+      <c r="F15" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="G15" s="17"/>
+    </row>
+    <row r="17" spans="2:5" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="33" t="s">
+        <v>34</v>
+      </c>
+      <c r="C17" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="D17" s="16"/>
+      <c r="E17" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="17">
+    <mergeCell ref="C17:E17"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="B14:G14"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="B10:G10"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="F12:G12"/>
     <mergeCell ref="E3:E4"/>
-    <mergeCell ref="C9:E9"/>
     <mergeCell ref="G3:G4"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="F9:G9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>